--- a/20231105_VinhPhuc1 - Copy/info/QuiDinhDiaChi1.xlsx
+++ b/20231105_VinhPhuc1 - Copy/info/QuiDinhDiaChi1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCompany\8.SourceCode\3.Projects\20231101_MrThamHiTech4P\20231105_VinhPhuc1 - Copy\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBE4D89-5BC2-488E-9D81-E11E4CE5ECFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BAEDCC-8123-41E3-8BAB-01854BA11187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2475,7 +2475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2582,9 +2582,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2868,8 +2865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM35"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3577,8 +3574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L206" sqref="L206"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8417,7 +8414,7 @@
       </c>
     </row>
     <row r="274" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="J274" s="51"/>
+      <c r="J274" s="34"/>
       <c r="K274" s="12"/>
       <c r="L274" s="4"/>
       <c r="M274" s="4"/>

--- a/20231105_VinhPhuc1 - Copy/info/QuiDinhDiaChi1.xlsx
+++ b/20231105_VinhPhuc1 - Copy/info/QuiDinhDiaChi1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCompany\8.SourceCode\3.Projects\20231101_MrThamHiTech4P\20231105_VinhPhuc1 - Copy\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BAEDCC-8123-41E3-8BAB-01854BA11187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFED618C-1DDD-4E0A-BF7A-CE21557A7D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2259,7 +2259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2319,19 +2319,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2402,7 +2389,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2469,6 +2456,15 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2542,9 +2538,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2865,8 +2863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM35"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O13"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2874,6 +2872,7 @@
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="4" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="27.85546875" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" customWidth="1"/>
     <col min="15" max="15" width="22.140625" customWidth="1"/>
@@ -2887,16 +2886,22 @@
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="M1" s="38" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="36"/>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="U1" t="s">
         <v>361</v>
       </c>
@@ -2907,7 +2912,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2918,24 +2923,23 @@
         <v>7</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>386</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U2" t="s">
         <v>353</v>
@@ -2964,25 +2968,18 @@
         <v>382</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>371</v>
       </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
       <c r="U3" t="s">
         <v>354</v>
       </c>
@@ -3010,18 +3007,23 @@
         <v>383</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="M4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>372</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
@@ -3037,25 +3039,18 @@
         <v>384</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>373</v>
       </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
       <c r="Z5" s="4" t="s">
         <v>366</v>
       </c>
@@ -3074,19 +3069,18 @@
         <v>385</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="M6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>374</v>
       </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
       <c r="Z6" s="4" t="s">
         <v>705</v>
       </c>
@@ -3105,19 +3099,18 @@
         <v>387</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="M7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>375</v>
       </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
@@ -3132,19 +3125,18 @@
         <v>388</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="M8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>376</v>
       </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
     </row>
@@ -3159,19 +3151,18 @@
         <v>389</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="M9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>377</v>
       </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
     </row>
@@ -3186,19 +3177,18 @@
         <v>390</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="M10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>378</v>
       </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
     </row>
@@ -3213,19 +3203,18 @@
         <v>391</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="M11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>379</v>
       </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
     </row>
@@ -3240,19 +3229,18 @@
         <v>392</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="M12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>380</v>
       </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
     </row>
@@ -3267,19 +3255,18 @@
         <v>393</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="M13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>381</v>
       </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
     </row>
@@ -3294,19 +3281,18 @@
         <v>394</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="M14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>451</v>
       </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
     </row>
@@ -3321,23 +3307,22 @@
         <v>395</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="M15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="N15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>452</v>
       </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
     </row>
-    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>429</v>
       </c>
@@ -3348,17 +3333,16 @@
         <v>396</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="M16" s="17" t="s">
+      <c r="E16" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
         <v>453</v>
       </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
     </row>
@@ -3373,13 +3357,12 @@
         <v>397</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
       <c r="Z17" s="4" t="s">
         <v>4</v>
       </c>
@@ -3397,9 +3380,9 @@
       <c r="C18" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
       <c r="Z18" s="4" t="s">
         <v>368</v>
       </c>
@@ -3417,9 +3400,9 @@
       <c r="C19" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
       <c r="Z19" s="4" t="s">
         <v>367</v>
       </c>
@@ -3437,9 +3420,9 @@
       <c r="C20" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -3451,9 +3434,9 @@
       <c r="C21" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -3465,9 +3448,9 @@
       <c r="C22" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
@@ -3479,9 +3462,9 @@
       <c r="C23" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -3493,9 +3476,6 @@
       <c r="C24" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -3509,24 +3489,24 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C26" s="37" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>305</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>441</v>
-      </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="4" t="s">
         <v>449</v>
       </c>
     </row>
@@ -3535,7 +3515,7 @@
         <v>306</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>450</v>
@@ -3561,8 +3541,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3575,7 +3555,7 @@
   <dimension ref="A1:R288"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="A11:XFD11"/>
+      <selection activeCell="K265" sqref="K265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
